--- a/MIR3502/MIR3502端口表.xlsx
+++ b/MIR3502/MIR3502端口表.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16980" windowHeight="12195" activeTab="2"/>
+    <workbookView windowWidth="28110" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="端口数量" sheetId="2" r:id="rId1"/>
     <sheet name="管脚定义" sheetId="1" r:id="rId2"/>
     <sheet name="CAN通信协议" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="229">
   <si>
     <r>
       <rPr>
@@ -64,9 +64,6 @@
     <t>DI</t>
   </si>
   <si>
-    <t>PI</t>
-  </si>
-  <si>
     <t>DO</t>
   </si>
   <si>
@@ -82,10 +79,10 @@
     <t>AI/DI</t>
   </si>
   <si>
-    <t>AI/DI/DO</t>
-  </si>
-  <si>
-    <t>AI/DI/DO/PWM-i</t>
+    <t>DI/DO</t>
+  </si>
+  <si>
+    <t>DI/DO/PWM-i</t>
   </si>
   <si>
     <t>合计：</t>
@@ -212,9 +209,6 @@
     </r>
   </si>
   <si>
-    <t>AI-06</t>
-  </si>
-  <si>
     <t>DI_06</t>
   </si>
   <si>
@@ -257,9 +251,6 @@
     </r>
   </si>
   <si>
-    <t>AI-07</t>
-  </si>
-  <si>
     <t>DI_07</t>
   </si>
   <si>
@@ -284,9 +275,6 @@
     </r>
   </si>
   <si>
-    <t>AI-08</t>
-  </si>
-  <si>
     <t>DI_08</t>
   </si>
   <si>
@@ -296,9 +284,6 @@
     <t>4:</t>
   </si>
   <si>
-    <t>AI-09</t>
-  </si>
-  <si>
     <t>DI_09</t>
   </si>
   <si>
@@ -308,9 +293,6 @@
     <t>5:</t>
   </si>
   <si>
-    <t>AI-10</t>
-  </si>
-  <si>
     <t>DI_10</t>
   </si>
   <si>
@@ -320,9 +302,6 @@
     <t>6:</t>
   </si>
   <si>
-    <t>AI-11</t>
-  </si>
-  <si>
     <t>DI_11</t>
   </si>
   <si>
@@ -332,9 +311,6 @@
     <t>7:</t>
   </si>
   <si>
-    <t>AI-12</t>
-  </si>
-  <si>
     <t>DI_12</t>
   </si>
   <si>
@@ -344,9 +320,6 @@
     <t>8:</t>
   </si>
   <si>
-    <t>AI-13</t>
-  </si>
-  <si>
     <t>DI_13</t>
   </si>
   <si>
@@ -356,9 +329,6 @@
     <t>9:</t>
   </si>
   <si>
-    <t>AI-14</t>
-  </si>
-  <si>
     <t>DI_14</t>
   </si>
   <si>
@@ -368,9 +338,6 @@
     <t>10:</t>
   </si>
   <si>
-    <t>AI-15</t>
-  </si>
-  <si>
     <t>DI_15</t>
   </si>
   <si>
@@ -380,9 +347,6 @@
     <t>11:</t>
   </si>
   <si>
-    <t>AI-16</t>
-  </si>
-  <si>
     <t>DI_16</t>
   </si>
   <si>
@@ -392,9 +356,6 @@
     <t>12:</t>
   </si>
   <si>
-    <t>AI-17</t>
-  </si>
-  <si>
     <t>DI_17</t>
   </si>
   <si>
@@ -485,9 +446,6 @@
     <t>24:</t>
   </si>
   <si>
-    <t>AI-29</t>
-  </si>
-  <si>
     <t>DI_29</t>
   </si>
   <si>
@@ -500,9 +458,6 @@
     <t>25:</t>
   </si>
   <si>
-    <t>AI-28</t>
-  </si>
-  <si>
     <t>DI_28</t>
   </si>
   <si>
@@ -512,9 +467,6 @@
     <t>26:</t>
   </si>
   <si>
-    <t>AI-27</t>
-  </si>
-  <si>
     <t>DI_27</t>
   </si>
   <si>
@@ -524,9 +476,6 @@
     <t>27:</t>
   </si>
   <si>
-    <t>AI-26</t>
-  </si>
-  <si>
     <t>DI_26</t>
   </si>
   <si>
@@ -536,9 +485,6 @@
     <t>28:</t>
   </si>
   <si>
-    <t>AI-25</t>
-  </si>
-  <si>
     <t>DI_25</t>
   </si>
   <si>
@@ -548,9 +494,6 @@
     <t>29:</t>
   </si>
   <si>
-    <t>AI-24</t>
-  </si>
-  <si>
     <t>DI_24</t>
   </si>
   <si>
@@ -560,9 +503,6 @@
     <t>30:</t>
   </si>
   <si>
-    <t>AI-23</t>
-  </si>
-  <si>
     <t>DI_23</t>
   </si>
   <si>
@@ -572,9 +512,6 @@
     <t>31:</t>
   </si>
   <si>
-    <t>AI-22</t>
-  </si>
-  <si>
     <t>DI_22</t>
   </si>
   <si>
@@ -584,9 +521,6 @@
     <t>32:</t>
   </si>
   <si>
-    <t>AI-21</t>
-  </si>
-  <si>
     <t>DI_21</t>
   </si>
   <si>
@@ -596,9 +530,6 @@
     <t>33:</t>
   </si>
   <si>
-    <t>AI-20</t>
-  </si>
-  <si>
     <t>DI_20</t>
   </si>
   <si>
@@ -608,9 +539,6 @@
     <t>34:</t>
   </si>
   <si>
-    <t>AI-19</t>
-  </si>
-  <si>
     <t>DI_19</t>
   </si>
   <si>
@@ -618,9 +546,6 @@
   </si>
   <si>
     <t>35:</t>
-  </si>
-  <si>
-    <t>AI-18</t>
   </si>
   <si>
     <t>DI_18</t>
@@ -949,12 +874,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,14 +899,16 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Verdana"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -998,22 +925,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1029,7 +950,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1037,6 +981,42 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1044,16 +1024,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1069,60 +1041,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1149,37 +1068,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,6 +1104,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1209,13 +1140,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1233,13 +1188,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,13 +1218,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,67 +1230,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,8 +1343,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,22 +1353,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1469,26 +1373,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,6 +1405,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1518,157 +1422,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1728,10 +1647,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2057,10 +1973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:J10"/>
+  <dimension ref="B3:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2068,7 +1984,7 @@
     <col min="2" max="2" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:9">
       <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
@@ -2078,10 +1994,9 @@
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="2:10">
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
@@ -2094,7 +2009,7 @@
       <c r="E4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="G4" s="22" t="s">
@@ -2103,118 +2018,105 @@
       <c r="H4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="26" t="s">
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="15" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="C5" s="15">
         <v>6</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>6</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="23">
         <v>6</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="11"/>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="15">
         <v>22</v>
       </c>
-      <c r="D6" s="15">
-        <v>22</v>
-      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="15">
         <v>22</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="F6" s="15">
         <v>22</v>
       </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="15">
         <v>2</v>
       </c>
-      <c r="D7" s="15">
-        <v>2</v>
-      </c>
+      <c r="D7" s="15"/>
       <c r="E7" s="15">
         <v>2</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="F7" s="15">
         <v>2</v>
       </c>
-      <c r="H7" s="24">
+      <c r="G7" s="23">
         <v>2</v>
       </c>
-      <c r="I7" s="15">
+      <c r="H7" s="15">
         <v>2</v>
       </c>
-      <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="15">
-        <f t="shared" ref="C8:J8" si="0">SUM(C5:C7)</f>
+        <f>SUM(C5:C7)</f>
         <v>30</v>
       </c>
       <c r="D8" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(D5:D7)</f>
+        <v>6</v>
+      </c>
+      <c r="E8" s="15">
+        <f>SUM(E5:E7)</f>
         <v>30</v>
       </c>
-      <c r="E8" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
       <c r="F8" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(F5:F7)</f>
+        <v>24</v>
       </c>
       <c r="G8" s="15">
-        <v>16</v>
+        <f>SUM(G5:G7)</f>
+        <v>2</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="0"/>
+        <f>SUM(H5:H7)</f>
         <v>2</v>
       </c>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="11"/>
       <c r="C9" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="15">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E9" s="15">
         <v>8</v>
@@ -2222,52 +2124,45 @@
       <c r="F9" s="15">
         <v>0</v>
       </c>
-      <c r="G9" s="15">
-        <v>0</v>
-      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15">
+      <c r="I9" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:9">
       <c r="B10" s="11"/>
       <c r="C10" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="15">
-        <f t="shared" ref="D10:J10" si="1">SUM(D8:D9)</f>
-        <v>42</v>
+        <f>SUM(D8:D9)</f>
+        <v>8</v>
       </c>
       <c r="E10" s="15">
-        <f t="shared" si="1"/>
+        <f>SUM(E8:E9)</f>
         <v>38</v>
       </c>
       <c r="F10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(F8:F9)</f>
+        <v>24</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>SUM(G8:G9)</f>
+        <v>2</v>
       </c>
       <c r="H10" s="15">
-        <f t="shared" si="1"/>
+        <f>SUM(H8:H9)</f>
         <v>2</v>
       </c>
       <c r="I10" s="15">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="1"/>
+        <f>SUM(I8:I9)</f>
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -2279,15 +2174,15 @@
   <sheetPr/>
   <dimension ref="D1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="4:10">
       <c r="D1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
@@ -2298,654 +2193,606 @@
     </row>
     <row r="2" ht="24.75" spans="4:10">
       <c r="D2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="4:10">
       <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="G3" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="4:10">
       <c r="D4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="4:10">
       <c r="D5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>34</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="4:10">
       <c r="D6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>38</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E6" s="11"/>
       <c r="F6" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="4:10">
       <c r="D7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="4:10">
       <c r="D8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>46</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="4:10">
       <c r="D9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="E9" s="11"/>
       <c r="F9" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="4:10">
       <c r="D10" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>54</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="E10" s="11"/>
       <c r="F10" s="11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="4:10">
       <c r="D11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>58</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E11" s="11"/>
       <c r="F11" s="11" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="4:10">
       <c r="D12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>62</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E12" s="11"/>
       <c r="F12" s="11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="4:10">
       <c r="D13" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>66</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E13" s="11"/>
       <c r="F13" s="11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="4:10">
       <c r="D14" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>70</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J15" s="11"/>
     </row>
     <row r="16" spans="4:10">
       <c r="D16" s="11" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J16" s="11"/>
     </row>
     <row r="17" spans="4:10">
       <c r="D17" s="11" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
       <c r="J17" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="4:10">
       <c r="D18" s="11" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
       <c r="J18" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="11" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
       <c r="J19" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="11" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="11" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="11" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="J22" s="9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="11" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J23" s="11"/>
     </row>
     <row r="24" spans="4:10">
       <c r="D24" s="11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="4:10">
       <c r="D25" s="11" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="J25" s="11"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="4:10">
       <c r="D26" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>101</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="4:10">
       <c r="D27" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>106</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>110</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="4:10">
       <c r="D29" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>114</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="11" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="4:10">
       <c r="D30" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>118</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E30" s="11"/>
       <c r="F30" s="11" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="4:10">
       <c r="D31" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>122</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="11" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="4:10">
       <c r="D32" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>126</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="11" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>130</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="E33" s="11"/>
       <c r="F33" s="11" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="4:10">
       <c r="D34" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>134</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="11" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="4:11">
       <c r="D35" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>138</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="E35" s="11"/>
       <c r="F35" s="11" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K35" s="16"/>
     </row>
     <row r="36" spans="4:11">
       <c r="D36" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>142</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E36" s="11"/>
       <c r="F36" s="11" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K36" s="16"/>
     </row>
     <row r="37" spans="4:11">
       <c r="D37" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>146</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="E37" s="11"/>
       <c r="F37" s="11" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="I37" s="11"/>
       <c r="J37" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K37" s="16"/>
     </row>
@@ -2954,22 +2801,22 @@
     </row>
     <row r="39" spans="5:11">
       <c r="E39" s="13" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F39" s="14"/>
       <c r="H39" s="13" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="I39" s="14"/>
       <c r="K39" s="16"/>
     </row>
     <row r="40" spans="5:11">
       <c r="E40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F40" s="11"/>
       <c r="H40" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I40" s="11"/>
       <c r="K40" s="16"/>
@@ -2979,13 +2826,13 @@
         <v>1</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="H41" s="15">
         <v>1</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
     </row>
     <row r="42" spans="5:9">
@@ -2993,13 +2840,13 @@
         <v>2</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="H42" s="15">
         <v>2</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="5:9">
@@ -3007,13 +2854,13 @@
         <v>3</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="H43" s="15">
         <v>3</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="5:9">
@@ -3021,13 +2868,13 @@
         <v>4</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="H44" s="15">
         <v>4</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="5:9">
@@ -3035,13 +2882,13 @@
         <v>5</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="H45" s="15">
         <v>5</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="5:9">
@@ -3049,13 +2896,13 @@
         <v>6</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="H46" s="15">
         <v>6</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="5:9">
@@ -3063,13 +2910,13 @@
         <v>7</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="H47" s="15">
         <v>7</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="5:9">
@@ -3077,13 +2924,13 @@
         <v>8</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="H48" s="15">
         <v>8</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="6:10">
@@ -3172,15 +3019,15 @@
   <sheetPr/>
   <dimension ref="B3:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="3" spans="3:11">
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3193,7 +3040,7 @@
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="2" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3207,34 +3054,34 @@
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="2:11">
@@ -3245,28 +3092,28 @@
         <v>300</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>176</v>
+        <v>151</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3277,28 +3124,28 @@
         <v>301</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -3309,28 +3156,28 @@
         <v>302</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:11">
@@ -3341,28 +3188,28 @@
         <v>303</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:11">
@@ -3373,28 +3220,28 @@
         <v>304</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -3405,28 +3252,28 @@
         <v>305</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -3437,28 +3284,28 @@
         <v>306</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="2:11">
@@ -3469,28 +3316,28 @@
         <v>307</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -3501,28 +3348,28 @@
         <v>308</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -3539,7 +3386,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="5" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -3553,34 +3400,34 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>168</v>
+        <v>143</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -3591,37 +3438,37 @@
         <v>400</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="5:11">
       <c r="E20" s="7" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>

--- a/MIR3502/MIR3502端口表.xlsx
+++ b/MIR3502/MIR3502端口表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28110" windowHeight="13140"/>
+    <workbookView windowWidth="28110" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="端口数量" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="229">
   <si>
     <r>
       <rPr>
@@ -216,11 +216,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
       <t>DI</t>
     </r>
     <r>
@@ -229,7 +224,33 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>为低有效</t>
+      <t>为低有效；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+DO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>输出容量：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ 2.5A</t>
     </r>
   </si>
   <si>
@@ -874,10 +895,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -903,23 +924,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,26 +961,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -964,16 +983,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,29 +1013,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1033,15 +1031,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,13 +1089,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,127 +1251,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,13 +1263,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,20 +1273,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1340,11 +1361,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1353,7 +1391,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1373,17 +1411,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1405,15 +1437,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1423,17 +1446,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1442,152 +1474,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1631,6 +1663,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1975,8 +2031,8 @@
   <sheetPr/>
   <dimension ref="B3:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1985,40 +2041,40 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:9">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="24"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="33" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2029,10 +2085,10 @@
       <c r="C5" s="15">
         <v>6</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="31">
         <v>6</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="31">
         <v>6</v>
       </c>
       <c r="F5" s="15"/>
@@ -2072,7 +2128,7 @@
       <c r="F7" s="15">
         <v>2</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="31">
         <v>2</v>
       </c>
       <c r="H7" s="15">
@@ -2081,31 +2137,31 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="15">
-        <f>SUM(C5:C7)</f>
+        <f t="shared" ref="C8:H8" si="0">SUM(C5:C7)</f>
         <v>30</v>
       </c>
       <c r="D8" s="15">
-        <f>SUM(D5:D7)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E8" s="15">
-        <f>SUM(E5:E7)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F8" s="15">
-        <f>SUM(F5:F7)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="G8" s="15">
-        <f>SUM(G5:G7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="H8" s="15">
-        <f>SUM(H5:H7)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I8" s="11"/>
@@ -2136,27 +2192,27 @@
         <v>14</v>
       </c>
       <c r="D10" s="15">
-        <f>SUM(D8:D9)</f>
+        <f t="shared" ref="D10:I10" si="1">SUM(D8:D9)</f>
         <v>8</v>
       </c>
       <c r="E10" s="15">
-        <f>SUM(E8:E9)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="F10" s="15">
-        <f>SUM(F8:F9)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="G10" s="15">
-        <f>SUM(G8:G9)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H10" s="15">
-        <f>SUM(H8:H9)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I10" s="15">
-        <f>SUM(I8:I9)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -2174,11 +2230,14 @@
   <sheetPr/>
   <dimension ref="D1:K77"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="4:10">
       <c r="D1" s="8" t="s">
@@ -2214,7 +2273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="4:10">
+    <row r="3" spans="4:11">
       <c r="D3" s="11" t="s">
         <v>23</v>
       </c>
@@ -2227,11 +2286,12 @@
       </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="4:10">
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="4:11">
       <c r="D4" s="11" t="s">
         <v>27</v>
       </c>
@@ -2244,11 +2304,10 @@
       </c>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10">
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="4:11">
       <c r="D5" s="11" t="s">
         <v>30</v>
       </c>
@@ -2261,11 +2320,10 @@
       </c>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
-      <c r="J5" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10">
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="4:11">
       <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
@@ -2278,11 +2336,10 @@
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10">
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="4:11">
       <c r="D7" s="11" t="s">
         <v>36</v>
       </c>
@@ -2295,11 +2352,10 @@
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10">
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="4:11">
       <c r="D8" s="11" t="s">
         <v>39</v>
       </c>
@@ -2312,11 +2368,10 @@
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
-      <c r="J8" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10">
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="4:11">
       <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
@@ -2329,11 +2384,10 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
-      <c r="J9" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10">
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="4:11">
       <c r="D10" s="11" t="s">
         <v>45</v>
       </c>
@@ -2346,11 +2400,10 @@
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10">
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="4:11">
       <c r="D11" s="11" t="s">
         <v>48</v>
       </c>
@@ -2363,11 +2416,10 @@
       </c>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10">
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="4:11">
       <c r="D12" s="11" t="s">
         <v>51</v>
       </c>
@@ -2380,11 +2432,10 @@
       </c>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
-      <c r="J12" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10">
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="4:11">
       <c r="D13" s="11" t="s">
         <v>54</v>
       </c>
@@ -2397,11 +2448,10 @@
       </c>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
-      <c r="J13" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10">
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="4:11">
       <c r="D14" s="11" t="s">
         <v>57</v>
       </c>
@@ -2414,9 +2464,8 @@
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J14" s="20"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="4:10">
       <c r="D15" s="11" t="s">
@@ -2457,7 +2506,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2474,9 +2523,7 @@
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
-      <c r="J18" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="J18" s="22"/>
     </row>
     <row r="19" spans="4:10">
       <c r="D19" s="11" t="s">
@@ -2491,9 +2538,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
-      <c r="J19" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="4:10">
       <c r="D20" s="11" t="s">
@@ -2508,9 +2553,7 @@
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
-      <c r="J20" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="4:10">
       <c r="D21" s="11" t="s">
@@ -2525,9 +2568,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
-      <c r="J21" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="4:10">
       <c r="D22" s="11" t="s">
@@ -2542,9 +2583,7 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="9" t="s">
-        <v>66</v>
-      </c>
+      <c r="J22" s="23"/>
     </row>
     <row r="23" spans="4:10">
       <c r="D23" s="11" t="s">
@@ -2600,7 +2639,7 @@
         <v>90</v>
       </c>
       <c r="I26" s="11"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2617,9 +2656,7 @@
       </c>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
-      <c r="J27" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J27" s="18"/>
     </row>
     <row r="28" spans="4:10">
       <c r="D28" s="11" t="s">
@@ -2634,9 +2671,7 @@
       </c>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
-      <c r="J28" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J28" s="18"/>
     </row>
     <row r="29" spans="4:10">
       <c r="D29" s="11" t="s">
@@ -2651,9 +2686,7 @@
       </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
-      <c r="J29" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J29" s="18"/>
     </row>
     <row r="30" spans="4:10">
       <c r="D30" s="11" t="s">
@@ -2668,9 +2701,7 @@
       </c>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J30" s="18"/>
     </row>
     <row r="31" spans="4:10">
       <c r="D31" s="11" t="s">
@@ -2685,9 +2716,7 @@
       </c>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J31" s="18"/>
     </row>
     <row r="32" spans="4:10">
       <c r="D32" s="11" t="s">
@@ -2702,9 +2731,7 @@
       </c>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
-      <c r="J32" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="4:10">
       <c r="D33" s="11" t="s">
@@ -2719,9 +2746,7 @@
       </c>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
-      <c r="J33" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="4:10">
       <c r="D34" s="11" t="s">
@@ -2736,9 +2761,7 @@
       </c>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="J34" s="18"/>
     </row>
     <row r="35" spans="4:11">
       <c r="D35" s="11" t="s">
@@ -2753,10 +2776,8 @@
       </c>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
-      <c r="J35" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K35" s="16"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="4:11">
       <c r="D36" s="11" t="s">
@@ -2771,10 +2792,8 @@
       </c>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
-      <c r="J36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K36" s="16"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="24"/>
     </row>
     <row r="37" spans="4:11">
       <c r="D37" s="11" t="s">
@@ -2791,13 +2810,11 @@
         <v>124</v>
       </c>
       <c r="I37" s="11"/>
-      <c r="J37" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K37" s="16"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="11:11">
-      <c r="K38" s="16"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" spans="5:11">
       <c r="E39" s="13" t="s">
@@ -2808,7 +2825,7 @@
         <v>126</v>
       </c>
       <c r="I39" s="14"/>
-      <c r="K39" s="16"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="5:11">
       <c r="E40" s="9" t="s">
@@ -2819,7 +2836,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="11"/>
-      <c r="K40" s="16"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" s="15">
@@ -2934,80 +2951,84 @@
       </c>
     </row>
     <row r="68" spans="6:10">
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
     </row>
     <row r="69" spans="6:10">
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="17"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="25"/>
     </row>
     <row r="70" spans="6:10">
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
     </row>
     <row r="71" spans="6:10">
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="16"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
     </row>
     <row r="72" spans="6:10">
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="16"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
     </row>
     <row r="73" spans="6:10">
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-      <c r="I73" s="16"/>
-      <c r="J73" s="16"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
     </row>
     <row r="74" spans="6:10">
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-      <c r="I74" s="16"/>
-      <c r="J74" s="16"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
     </row>
     <row r="75" spans="6:10">
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-      <c r="I75" s="16"/>
-      <c r="J75" s="16"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
     </row>
     <row r="76" spans="6:10">
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-      <c r="I76" s="16"/>
-      <c r="J76" s="16"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
     </row>
     <row r="77" spans="6:10">
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-      <c r="I77" s="16"/>
-      <c r="J77" s="16"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="D1:J1"/>
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J3:J14"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="J26:J37"/>
+    <mergeCell ref="K3:K14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
